--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4573A43-78A7-E641-8207-720C79D88C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45637A31-7752-464F-80C3-57BFDE3C783A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="8080" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -197,12 +197,6 @@
     <t>Spring Break</t>
   </si>
   <si>
-    <t>1pm</t>
-  </si>
-  <si>
-    <t>2pm</t>
-  </si>
-  <si>
     <t>Chapter 1 - Intro to Data, R, and RStudio</t>
   </si>
   <si>
@@ -210,6 +204,12 @@
   </si>
   <si>
     <t>/assesssments/midterm/</t>
+  </si>
+  <si>
+    <t>2:30 pm</t>
+  </si>
+  <si>
+    <t>3:30 pm</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,10 +629,10 @@
         <v>44589</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,7 +941,7 @@
         <v>44598</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1011,10 +1011,10 @@
         <v>44635</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45637A31-7752-464F-80C3-57BFDE3C783A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E2DDA3-1CDA-6448-98F7-50B47BBD5F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="19300" yWindow="9160" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>3:30 pm</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Slides</t>
+  </si>
+  <si>
+    <t>00-Intro_to_Course</t>
   </si>
 </sst>
 </file>
@@ -589,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,10 +610,11 @@
     <col min="2" max="3" width="18.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,10 +631,16 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44589</v>
       </c>
@@ -640,8 +656,11 @@
       <c r="E2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44594</v>
       </c>
@@ -658,7 +677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44601</v>
       </c>
@@ -675,7 +694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44608</v>
       </c>
@@ -692,7 +711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44615</v>
       </c>
@@ -708,9 +727,9 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44622</v>
       </c>
@@ -726,9 +745,9 @@
       <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44629</v>
       </c>
@@ -744,9 +763,9 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44636</v>
       </c>
@@ -762,9 +781,9 @@
       <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44643</v>
       </c>
@@ -780,9 +799,9 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44650</v>
       </c>
@@ -798,9 +817,9 @@
       <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44657</v>
       </c>
@@ -816,9 +835,9 @@
       <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44664</v>
       </c>
@@ -834,18 +853,18 @@
       <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44671</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44678</v>
       </c>
@@ -861,9 +880,9 @@
       <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44685</v>
       </c>
@@ -879,7 +898,7 @@
       <c r="E16" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E2DDA3-1CDA-6448-98F7-50B47BBD5F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F0FD18-702D-074F-B8E3-A3CAC66CB55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19300" yWindow="9160" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>00-Intro_to_Course</t>
+  </si>
+  <si>
+    <t>CWydtLn7n6o</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,6 +613,7 @@
     <col min="2" max="3" width="18.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.1640625" customWidth="1"/>
   </cols>
@@ -655,6 +659,9 @@
       </c>
       <c r="E2" t="s">
         <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
       </c>
       <c r="G2" t="s">
         <v>60</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F0FD18-702D-074F-B8E3-A3CAC66CB55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A62AB87-D9F9-9F45-86EC-0B2FD6DB01F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19300" yWindow="9160" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="16860" yWindow="9480" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>CWydtLn7n6o</t>
+  </si>
+  <si>
+    <t>02-Intro_to_Data</t>
+  </si>
+  <si>
+    <t>NfzmlJP21TU</t>
   </si>
 </sst>
 </file>
@@ -614,7 +620,7 @@
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
     <col min="8" max="8" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -682,6 +688,12 @@
       </c>
       <c r="E3" t="s">
         <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A62AB87-D9F9-9F45-86EC-0B2FD6DB01F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8ADD28-A616-194A-9BD4-AF7D0FDBC4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16860" yWindow="9480" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -224,10 +224,10 @@
     <t>CWydtLn7n6o</t>
   </si>
   <si>
-    <t>02-Intro_to_Data</t>
-  </si>
-  <si>
     <t>NfzmlJP21TU</t>
+  </si>
+  <si>
+    <t>01-Intro_to_Data</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,10 +690,10 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
         <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8ADD28-A616-194A-9BD4-AF7D0FDBC4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB034658-7F51-004B-B767-6A76AFDA20DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16860" yWindow="9480" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>01-Intro_to_Data</t>
+  </si>
+  <si>
+    <t>iZTL3Y_vX3w</t>
+  </si>
+  <si>
+    <t>02-Summarizing_Data</t>
   </si>
 </sst>
 </file>
@@ -610,7 +616,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,6 +717,12 @@
       </c>
       <c r="E4" t="s">
         <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB034658-7F51-004B-B767-6A76AFDA20DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0FAB1B-17D7-7548-A779-BF1EF640FFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="9480" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="16840" yWindow="9460" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>02-Summarizing_Data</t>
+  </si>
+  <si>
+    <t>AyTIHJ8Bges</t>
+  </si>
+  <si>
+    <t>03-Probability</t>
+  </si>
+  <si>
+    <t>R script located here: https://github.com/jbryer/DATA606Spring2022/blob/main/R/probability_card_game_simulation.R</t>
   </si>
 </sst>
 </file>
@@ -616,7 +625,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,6 +749,15 @@
       </c>
       <c r="E5" t="s">
         <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0FAB1B-17D7-7548-A779-BF1EF640FFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD67943D-9A36-834E-A9C5-E00E2CC29A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16840" yWindow="9460" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>R script located here: https://github.com/jbryer/DATA606Spring2022/blob/main/R/probability_card_game_simulation.R</t>
+  </si>
+  <si>
+    <t>3:00 pm</t>
+  </si>
+  <si>
+    <t>4:00 pm</t>
   </si>
 </sst>
 </file>
@@ -625,7 +631,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -783,10 +789,10 @@
         <v>44622</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD67943D-9A36-834E-A9C5-E00E2CC29A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE26B855-B7FA-4243-AC9E-7DA7A545A44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="9460" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="16840" yWindow="9460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="B7" s="2">
-        <v>44635</v>
+        <v>44642</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE26B855-B7FA-4243-AC9E-7DA7A545A44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D722CFE-D429-2648-8C93-80B99BBCD6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="9460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="16820" yWindow="9460" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>4:00 pm</t>
+  </si>
+  <si>
+    <t>OOeidrHCU8o</t>
+  </si>
+  <si>
+    <t>04-Distributions</t>
   </si>
 </sst>
 </file>
@@ -630,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,6 +788,12 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -982,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D722CFE-D429-2648-8C93-80B99BBCD6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A5FDFC-9954-B342-9547-6F14E4873B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16820" yWindow="9460" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -255,6 +255,22 @@
   </si>
   <si>
     <t>04-Distributions</t>
+  </si>
+  <si>
+    <t>7:00 pm</t>
+  </si>
+  <si>
+    <t>R Package Development</t>
+  </si>
+  <si>
+    <t>vlyVKGSVCsk</t>
+  </si>
+  <si>
+    <t>2022-03-01-R_Package_Development</t>
+  </si>
+  <si>
+    <t>R script located here: https://github.com/jbryer/DATA606Spring2022/blob/main/Slides/2022-03-01-R_Package_Development/Build_R_Package.R
+You can download the supporting materials here: https://github.com/jbryer/DATA606Spring2022/blob/main/Slides/2022-03-01-R_Package_Development/</t>
   </si>
 </sst>
 </file>
@@ -302,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -320,6 +336,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,7 +666,7 @@
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" customWidth="1"/>
     <col min="8" max="8" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -796,36 +815,41 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44629</v>
+        <v>44622</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -834,7 +858,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44636</v>
+        <v>44629</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -843,7 +867,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -852,7 +876,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44643</v>
+        <v>44636</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -861,7 +885,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -870,7 +894,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -879,7 +903,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -888,7 +912,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44657</v>
+        <v>44650</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -897,7 +921,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
@@ -906,7 +930,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44664</v>
+        <v>44657</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -915,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -924,34 +948,34 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44671</v>
+        <v>44664</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44678</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>44671</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44685</v>
+        <v>44678</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>11</v>
@@ -960,16 +984,16 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44692</v>
+        <v>44685</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -978,9 +1002,27 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A5FDFC-9954-B342-9547-6F14E4873B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18848D6E-8FFB-8F4D-81A9-19B5934DE31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16820" yWindow="9460" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -271,6 +271,12 @@
   <si>
     <t>R script located here: https://github.com/jbryer/DATA606Spring2022/blob/main/Slides/2022-03-01-R_Package_Development/Build_R_Package.R
 You can download the supporting materials here: https://github.com/jbryer/DATA606Spring2022/blob/main/Slides/2022-03-01-R_Package_Development/</t>
+  </si>
+  <si>
+    <t>05-Foundation_for_Inference</t>
+  </si>
+  <si>
+    <t>PrlOYF4iauM</t>
   </si>
 </sst>
 </file>
@@ -656,7 +662,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,6 +859,12 @@
       </c>
       <c r="E8" t="s">
         <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
       </c>
       <c r="H8" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18848D6E-8FFB-8F4D-81A9-19B5934DE31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72F9482-DDCB-B14F-A758-A9F4E1B46F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16820" yWindow="9460" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t>PrlOYF4iauM</t>
+  </si>
+  <si>
+    <t>05-Foundation_for_Inference2</t>
+  </si>
+  <si>
+    <t>XKCD cartoon for p-values: https://xkcd.com/1478/</t>
+  </si>
+  <si>
+    <t>cocpISf9QSc</t>
   </si>
 </sst>
 </file>
@@ -884,7 +893,15 @@
       <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72F9482-DDCB-B14F-A758-A9F4E1B46F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806073C4-4108-984A-A1B8-036423EFB474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16820" yWindow="9460" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>cocpISf9QSc</t>
+  </si>
+  <si>
+    <t>dcDIhaZWeCI</t>
+  </si>
+  <si>
+    <t>06-Inference_for_Categorical_Data</t>
   </si>
 </sst>
 </file>
@@ -671,7 +677,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,6 +924,12 @@
       </c>
       <c r="E10" t="s">
         <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
       </c>
       <c r="H10" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806073C4-4108-984A-A1B8-036423EFB474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7309BA3D-568D-5C43-B180-013BB03C6EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16820" yWindow="9460" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>06-Inference_for_Categorical_Data</t>
+  </si>
+  <si>
+    <t>07-Inference_for_Numerical_Data</t>
+  </si>
+  <si>
+    <t>wl62msOgzhk</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,6 +954,12 @@
       </c>
       <c r="E11" t="s">
         <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
       </c>
       <c r="H11" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7309BA3D-568D-5C43-B180-013BB03C6EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3ECD9F-0293-EF4F-B296-9BA80F712592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16820" yWindow="9460" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>wl62msOgzhk</t>
+  </si>
+  <si>
+    <t>G0jpKB1a5Sg</t>
+  </si>
+  <si>
+    <t>08-Linear_Regression</t>
   </si>
 </sst>
 </file>
@@ -683,7 +689,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -978,6 +984,12 @@
       </c>
       <c r="E12" t="s">
         <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
       </c>
       <c r="H12" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3ECD9F-0293-EF4F-B296-9BA80F712592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A74F43D-2D2F-D44C-BDDD-4AE2C8913008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16820" yWindow="9460" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>08-Linear_Regression</t>
+  </si>
+  <si>
+    <t>08-Linear_Regression2</t>
+  </si>
+  <si>
+    <t>jJppHfy7jCY</t>
   </si>
 </sst>
 </file>
@@ -689,7 +695,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,6 +1014,12 @@
       </c>
       <c r="E13" t="s">
         <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
       </c>
       <c r="H13" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A74F43D-2D2F-D44C-BDDD-4AE2C8913008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F756AB-F6BA-8640-9CAB-437BB7385841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16820" yWindow="9460" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>jJppHfy7jCY</t>
+  </si>
+  <si>
+    <t>peO4ZsxR3G0</t>
+  </si>
+  <si>
+    <t>09-Multiple_Regression</t>
   </si>
 </sst>
 </file>
@@ -695,7 +701,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,6 +1044,12 @@
       </c>
       <c r="E14" t="s">
         <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
       </c>
       <c r="H14" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F756AB-F6BA-8640-9CAB-437BB7385841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3680200F-FB07-B745-8BD5-0E06294A2037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16820" yWindow="9460" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="12560" yWindow="10940" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>09-Multiple_Regression</t>
+  </si>
+  <si>
+    <t>09-Logistic_Regression</t>
+  </si>
+  <si>
+    <t>fVv-i5swiRY</t>
   </si>
 </sst>
 </file>
@@ -701,7 +707,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,6 +1083,12 @@
       </c>
       <c r="E16" t="s">
         <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
       </c>
       <c r="H16" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3680200F-FB07-B745-8BD5-0E06294A2037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D39599-AF4A-FE42-B597-733AA21BC4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12560" yWindow="10940" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>fVv-i5swiRY</t>
+  </si>
+  <si>
+    <t>Yx8Rm2R4Dc0</t>
+  </si>
+  <si>
+    <t>10-Bayesian_Analysis</t>
   </si>
 </sst>
 </file>
@@ -707,7 +713,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1107,6 +1113,12 @@
       </c>
       <c r="E17" t="s">
         <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
       </c>
       <c r="H17" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2022 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D39599-AF4A-FE42-B597-733AA21BC4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CA10DF-DD60-3142-B4E7-4978333D4784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12560" yWindow="10940" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>10-Bayesian_Analysis</t>
+  </si>
+  <si>
+    <t>gVmby5Lv9YQ</t>
+  </si>
+  <si>
+    <t>11-Final_Meetup</t>
   </si>
 </sst>
 </file>
@@ -1138,6 +1144,12 @@
       <c r="E18" t="s">
         <v>29</v>
       </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
